--- a/common/StoryCatalog_Chapter1.xlsx
+++ b/common/StoryCatalog_Chapter1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="16740" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,31 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>序号</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">卷
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同id为一章</t>
-    </r>
   </si>
   <si>
     <r>
@@ -70,6 +48,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">触发事件
 </t>
     </r>
@@ -88,6 +73,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">触发参数
 </t>
     </r>
@@ -139,7 +131,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">chapter </t>
+      <t xml:space="preserve">section </t>
     </r>
     <r>
       <rPr>
@@ -162,7 +154,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">section </t>
+      <t xml:space="preserve">start_dialog </t>
     </r>
     <r>
       <rPr>
@@ -185,22 +177,6 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">start_dialog </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">option_dialog </t>
     </r>
     <r>
@@ -305,9 +281,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -333,7 +309,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,132 +444,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -490,7 +466,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,19 +487,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,37 +619,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,60 +649,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -638,60 +662,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,10 +690,42 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -744,43 +746,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,24 +787,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -825,10 +795,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -837,133 +807,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1311,23 +1281,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" customWidth="1"/>
+    <col min="1" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="81.75" spans="1:8">
+    <row r="1" ht="81.75" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1343,169 +1313,148 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="2" ht="32.25" spans="1:7">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" ht="32.25" spans="1:8">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" ht="16.5" spans="1:8">
+    <row r="3" ht="16.5" spans="1:7">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>16</v>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="7">
         <v>0</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>0</v>
       </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" ht="16.5" spans="1:8">
+    <row r="4" ht="16.5" spans="1:7">
       <c r="A4" s="6">
         <v>9999</v>
       </c>
       <c r="B4" s="6">
-        <v>9999</v>
-      </c>
-      <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>17</v>
+      <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
       </c>
       <c r="E4" s="6">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6">
         <v>0</v>
       </c>
-      <c r="F4" s="6">
-        <v>2</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" ht="16.5" spans="1:8">
+    <row r="5" ht="16.5" spans="1:7">
       <c r="A5" s="6">
         <v>10000</v>
       </c>
       <c r="B5" s="6">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>18</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="6">
         <v>1</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="6" ht="16.5" spans="1:8">
+    <row r="6" ht="16.5" spans="1:7">
       <c r="A6" s="6">
         <v>10001</v>
       </c>
       <c r="B6" s="6">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>19</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>19</v>
-      </c>
-      <c r="F6" s="6">
-        <v>3</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="G6" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:8">
+    <row r="7" ht="16.5" spans="1:7">
       <c r="A7" s="6">
         <v>10002</v>
       </c>
       <c r="B7" s="6">
-        <v>9999</v>
-      </c>
-      <c r="C7" s="6">
         <v>2</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>20</v>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <v>0</v>
       </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
+      <c r="G7" s="6">
         <v>4</v>
       </c>
     </row>

--- a/common/StoryCatalog_Chapter1.xlsx
+++ b/common/StoryCatalog_Chapter1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16740" windowHeight="7845"/>
+    <workbookView windowWidth="24180" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,20 +14,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
-    <t>序号</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">序号
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回id为唯一id不可重复从1开始
+选项id从90001001开始
+9开头中间4位是回序号后3位是选项序号</t>
+    </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">节
+      <t xml:space="preserve">对白id
 </t>
     </r>
     <r>
@@ -37,14 +51,8 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>同id为一节</t>
-    </r>
-  </si>
-  <si>
-    <t>对白id</t>
-  </si>
-  <si>
-    <t>选项对白id</t>
+      <t>关联StoryScene_Chapter</t>
+    </r>
   </si>
   <si>
     <r>
@@ -92,6 +100,7 @@
       </rPr>
       <t>对白=对白id
 选项=选项id
+[标题,选项1,2...]
 战斗=关卡id
 小游戏=游戏id</t>
     </r>
@@ -124,14 +133,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">section </t>
+      <t xml:space="preserve">Scene </t>
     </r>
     <r>
       <rPr>
@@ -142,7 +144,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>int</t>
+      <t>array</t>
     </r>
   </si>
   <si>
@@ -154,7 +156,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">start_dialog </t>
+      <t xml:space="preserve">trigger_type </t>
     </r>
     <r>
       <rPr>
@@ -177,7 +179,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">option_dialog </t>
+      <t xml:space="preserve">trigger_par </t>
     </r>
     <r>
       <rPr>
@@ -200,7 +202,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">trigger_type </t>
+      <t xml:space="preserve">reward_id </t>
     </r>
     <r>
       <rPr>
@@ -213,67 +215,6 @@
       </rPr>
       <t>int</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">trigger_par </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">reward_id </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int</t>
-    </r>
-  </si>
-  <si>
-    <t>1,17</t>
-  </si>
-  <si>
-    <t>1,4</t>
-  </si>
-  <si>
-    <t>10000,10001</t>
-  </si>
-  <si>
-    <t>10002</t>
-  </si>
-  <si>
-    <t>20,21</t>
   </si>
 </sst>
 </file>
@@ -283,8 +224,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -309,6 +250,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -316,92 +272,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -413,8 +294,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,25 +341,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,43 +428,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,133 +596,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,17 +631,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,32 +683,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -755,20 +690,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,6 +719,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -795,10 +736,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -807,133 +748,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1281,23 +1222,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="81.75" spans="1:7">
+    <row r="1" ht="131.25" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1307,156 +1247,64 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+    </row>
+    <row r="2" ht="32.25" spans="1:5">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" ht="32.25" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="3" ht="16.5" spans="1:7">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
+    <row r="3" ht="16.5" spans="1:5">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6"/>
     </row>
-    <row r="4" ht="16.5" spans="1:7">
-      <c r="A4" s="6">
-        <v>9999</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>2</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
+    <row r="4" ht="16.5" spans="1:5">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="6"/>
     </row>
-    <row r="5" ht="16.5" spans="1:7">
-      <c r="A5" s="6">
-        <v>10000</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>18</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
+    <row r="5" ht="16.5" spans="1:5">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6"/>
     </row>
-    <row r="6" ht="16.5" spans="1:7">
-      <c r="A6" s="6">
-        <v>10001</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>19</v>
-      </c>
-      <c r="E6" s="6">
-        <v>3</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
-        <v>2</v>
-      </c>
+    <row r="6" ht="16.5" spans="1:5">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6"/>
     </row>
-    <row r="7" ht="16.5" spans="1:7">
-      <c r="A7" s="6">
-        <v>10002</v>
-      </c>
-      <c r="B7" s="6">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>4</v>
-      </c>
+    <row r="7" ht="16.5" spans="1:5">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/common/StoryCatalog_Chapter1.xlsx
+++ b/common/StoryCatalog_Chapter1.xlsx
@@ -14,17 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">序号
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+  <si>
+    <r>
+      <t xml:space="preserve">回序号
 </t>
     </r>
     <r>
@@ -35,8 +28,9 @@
         <charset val="134"/>
       </rPr>
       <t>回id为唯一id不可重复从1开始
-选项id从90001001开始
-9开头中间4位是回序号后3位是选项序号</t>
+选项id从90000101开始
+9开头
+中间5位回序号后3位选项序号</t>
     </r>
   </si>
   <si>
@@ -56,13 +50,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">触发事件
 </t>
     </r>
@@ -81,13 +68,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">触发参数
 </t>
     </r>
@@ -99,24 +79,32 @@
         <charset val="134"/>
       </rPr>
       <t>对白=对白id
-选项=选项id
-[标题,选项1,2...]
+选项=选项序号
+[标题对白id,选项序号id1,2...]
 战斗=关卡id
 小游戏=游戏id</t>
     </r>
   </si>
   <si>
-    <t>奖励组id</t>
-  </si>
-  <si>
+    <r>
+      <t xml:space="preserve">下一回
+</t>
+    </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="0"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
+      <t>回序号</t>
+    </r>
+  </si>
+  <si>
+    <t>奖励组id</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">id </t>
     </r>
     <r>
@@ -133,7 +121,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Scene </t>
+      <t xml:space="preserve">scene </t>
     </r>
     <r>
       <rPr>
@@ -149,13 +137,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">trigger_type </t>
     </r>
     <r>
@@ -172,14 +153,23 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">trigger_par </t>
+    </r>
+    <r>
       <rPr>
-        <b/>
+        <i/>
+        <u/>
         <sz val="11"/>
         <color theme="0"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">trigger_par </t>
+      <t>array</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">next_node </t>
     </r>
     <r>
       <rPr>
@@ -195,13 +185,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">reward_id </t>
     </r>
     <r>
@@ -216,16 +199,64 @@
       <t>int</t>
     </r>
   </si>
+  <si>
+    <t>1,16</t>
+  </si>
+  <si>
+    <t>17,90000101,90000102</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19,21</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23,24</t>
+  </si>
+  <si>
+    <t>25,26</t>
+  </si>
+  <si>
+    <t>27,90000201,90000202</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29,46</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48,59</t>
+  </si>
+  <si>
+    <t>60,77</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -234,6 +265,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -243,12 +280,97 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -257,22 +379,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,106 +401,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -434,175 +465,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,20 +664,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,30 +682,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,12 +718,47 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -736,10 +767,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -748,160 +779,166 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1222,89 +1259,202 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="13.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="131.25" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="131.25" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="32.25" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" ht="32.25" spans="1:6">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="E2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" ht="16.5" spans="1:5">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6"/>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="6"/>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7">
+        <v>90000101</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6"/>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7">
+        <v>90000102</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6"/>
+    <row r="6" spans="1:6">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="6"/>
+    <row r="7" spans="1:6">
+      <c r="A7" s="7">
+        <v>90000201</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="7">
+        <v>90000202</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/common/StoryCatalog_Chapter1.xlsx
+++ b/common/StoryCatalog_Chapter1.xlsx
@@ -17,6 +17,13 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">回序号
 </t>
     </r>
@@ -35,6 +42,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">对白id
 </t>
     </r>
@@ -50,6 +64,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">触发事件
 </t>
     </r>
@@ -68,6 +89,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">触发参数
 </t>
     </r>
@@ -87,6 +115,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">下一回
 </t>
     </r>
@@ -105,6 +140,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">id </t>
     </r>
     <r>
@@ -121,6 +163,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">scene </t>
     </r>
     <r>
@@ -137,6 +186,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">trigger_type </t>
     </r>
     <r>
@@ -153,6 +209,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">trigger_par </t>
     </r>
     <r>
@@ -169,6 +232,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">next_node </t>
     </r>
     <r>
@@ -185,6 +255,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">reward_id </t>
     </r>
     <r>
@@ -245,7 +322,7 @@
     <t>48,59</t>
   </si>
   <si>
-    <t>60,77</t>
+    <t>1001,1018</t>
   </si>
 </sst>
 </file>
@@ -280,67 +357,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,25 +394,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,6 +463,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -401,22 +479,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -459,19 +536,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,157 +698,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,11 +739,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,16 +770,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,6 +801,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -731,7 +823,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,21 +836,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -767,10 +844,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -779,137 +856,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -936,9 +1013,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1262,7 +1336,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1420,16 +1494,16 @@
       <c r="A8" s="7">
         <v>90000202</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="7">

--- a/common/StoryCatalog_Chapter1.xlsx
+++ b/common/StoryCatalog_Chapter1.xlsx
@@ -330,10 +330,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -357,30 +357,33 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,6 +398,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -408,64 +418,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,16 +441,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,175 +536,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,17 +739,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,6 +787,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -802,35 +831,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -844,10 +844,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -856,73 +856,73 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -931,62 +931,62 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1012,6 +1012,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1336,7 +1339,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1526,8 +1529,8 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="1">
-        <v>0</v>
+      <c r="F9" s="9">
+        <v>1000301</v>
       </c>
     </row>
   </sheetData>

--- a/common/StoryCatalog_Chapter1.xlsx
+++ b/common/StoryCatalog_Chapter1.xlsx
@@ -277,40 +277,40 @@
     </r>
   </si>
   <si>
-    <t>1,16</t>
-  </si>
-  <si>
-    <t>17,90000101,90000102</t>
+    <t>1,10</t>
+  </si>
+  <si>
+    <t>11,90000101,90000102</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19,21</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13,15</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23,24</t>
-  </si>
-  <si>
-    <t>25,26</t>
-  </si>
-  <si>
-    <t>27,90000201,90000202</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29,46</t>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17,18</t>
+  </si>
+  <si>
+    <t>19,23</t>
+  </si>
+  <si>
+    <t>24,90000201,90000202</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26,46</t>
   </si>
   <si>
     <t>3</t>
@@ -319,7 +319,7 @@
     <t>47</t>
   </si>
   <si>
-    <t>48,59</t>
+    <t>48,63</t>
   </si>
   <si>
     <t>1001,1018</t>
@@ -331,9 +331,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -357,19 +357,117 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -381,121 +479,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,25 +536,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,151 +674,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,24 +739,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -768,6 +750,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,17 +808,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,30 +836,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -844,10 +844,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -856,133 +856,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1339,7 +1339,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
